--- a/scene_cat_exp_2023.2.2_english/input_files/53_scenecat_block_order.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/53_scenecat_block_order.xlsx
@@ -370,17 +370,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>living_rooms_1</t>
+          <t>bedrooms_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>bedrooms_2</t>
+          <t>kitchens_2</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>kitchens_2</t>
+          <t>living_rooms_1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -497,13 +497,13 @@
         <v>0</v>
       </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
